--- a/biology/Zoologie/Jean-Luc_Chapin/Jean-Luc_Chapin.xlsx
+++ b/biology/Zoologie/Jean-Luc_Chapin/Jean-Luc_Chapin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Luc Chapin, né le 28 janvier 1959 au Lude dans le département de la Sarthe en France, est un photographe naturaliste.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formé à la photographie auprès de Claude Anaf, dont il a été l'assistant au début des années 1980, il devient par la suite photographe indépendant[1]. Depuis 1993 il fait partie de l'agence Vu[2].  
-Il travaille en argentique sur les thèmes du paysage et du rapport de l’homme à la nature et à l'animal, en noir et blanc[1] et en couleur[3]. Très lié au texte, il collabore souvent avec des écrivains[4].     
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formé à la photographie auprès de Claude Anaf, dont il a été l'assistant au début des années 1980, il devient par la suite photographe indépendant. Depuis 1993 il fait partie de l'agence Vu.  
+Il travaille en argentique sur les thèmes du paysage et du rapport de l’homme à la nature et à l'animal, en noir et blanc et en couleur. Très lié au texte, il collabore souvent avec des écrivains.     
 Il vit à Bordeaux. 
 </t>
         </is>
@@ -544,16 +558,18 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un sauvage sentiment, Musée de la Chasse et de la Nature, Paris, 2002
 Il s'agit d'un pays familier, le Marais Vernier, avec Anne-Marie Garat, Évreux, 2005
 La ville élargie, avec un texte de Didier Arnaudet, vieille église de Mérignac, 2012
 La table des chiens, exposition et catalogue avec textes de Claude d'Anthenaise, Éric Audinet, Alain Borer, Christian Caujolle, Jean-Marie Laclavetine, Musée de la Chasse et de la Nature, Paris, 2013
-Des Mondes aquatiques #2, FRAC Aquitaine, Bordeaux, 2017[5]
-Natures, Galerie Gallimard, Paris, 2018[6],[7]
+Des Mondes aquatiques #2, FRAC Aquitaine, Bordeaux, 2017
+Natures, Galerie Gallimard, Paris, 2018,
 Inédit, exposition collective, Galerie Arrêt sur l'image, Bordeaux, 2019
-Arpenter, photographier la Nouvelle-Aquitaine, FRAC Nouvelle-Aquitaine MECA, Bordeaux, 2024[8]</t>
+Arpenter, photographier la Nouvelle-Aquitaine, FRAC Nouvelle-Aquitaine MECA, Bordeaux, 2024</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Saveurs de Porto, avec Eduardo Paz Barroso, éditions de l'Escampette, 1991
 Montaigne 1533-1592, avec Eduardo Lourenço, éditions de l'Escampette, 1992
@@ -597,7 +615,7 @@
 Cèpes, avec Eric Audinet, éditions Confluences, 2009
 Saisons du Médoc : une année à Sociando-Mallet, avec Jean Lacouture, Jean-Paul Kauffmann et al., éditions Confluences, 2010
 Chasseur Cueilleur,  avec Eric Audinet, éditions Confluences, 2011
-Descente au paradis, textes de Jean-Marie Laclavetine, photographies de Jean-Luc Chapin[9], éditions Gallimard, 2011  (ISBN 9782070134304).
+Descente au paradis, textes de Jean-Marie Laclavetine, photographies de Jean-Luc Chapin, éditions Gallimard, 2011  (ISBN 9782070134304).
 Pêcheur, avec d'Eric Audinet, éditions Confluences, 2013
 Natures, textes de Jean-Marie Laclavetine, préface de Muriel Barbery, photographies de Jean-Luc Chapin, éditions Gallimard, 2017
 Les pieds des photographes — Neuf photographes en Nouvelle Aquitaine, ouvrage collectif sous la direction d'Anne-Cécile Guilbard, avec des photographies d'Eva Avril, Jean-Luc Chapin, Marc Deneyer, Gabrielle Duplantier, Thierry Girard, Chrystèle Lerisse, Laurent Millet, Claude Nori et Claude Pauquet, Le Temps qu'il fait, Cognac, 2022 •  (ISBN 978-2-86853-699-0)</t>
